--- a/src/main/resources/AttendanceReport.xlsx
+++ b/src/main/resources/AttendanceReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P7167176\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\GIT\ATTENDANCE TRACKER\AttendanceTracker\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B97F77-5E54-497F-90D8-989F4F1A92E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58D44E-68CC-4B1F-9B92-30E98ACA2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,25 +387,25 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
